--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/78_Van_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/78_Van_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{218377C9-86C8-4C2C-A84C-29E88D380C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE72C5CC-E93B-4B47-841C-58030F103D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="699" xr2:uid="{07572BB3-3894-4D44-A056-D02F7A664003}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="699" xr2:uid="{61B7AD5E-798B-412F-93C3-93E08CDFCA40}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -972,14 +972,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{3DD1EFF0-D663-42B6-B6E6-4077CA34F661}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{BCA14343-B824-467C-96CF-BF82BD2DF02E}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{BE54CCD5-FF46-46AC-850A-19E0600838AD}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{C191B53F-1707-4DAC-B048-3E878C6DF259}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{BE9C59D4-90C5-4FDC-8A9A-EB178DB5D58E}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{8B6766F7-8F47-4D55-8EEE-9A9E964D3B13}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{F545AD6E-9E32-4447-B409-33C3C15494ED}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{34F6F1A5-C8FA-4D99-8F3D-09569E4F45BE}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{78D88E1C-D62B-403B-82AB-B2E59992AB40}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{4D1D0337-BA03-4F2D-83A1-F5E2BB4FDCA0}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{8C7A4A74-14BF-4E88-842A-B1CA78216F56}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{61ED4CD4-3CC2-4241-A6C3-789C7B954A8F}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{C0471EC5-BE81-43D2-ABC8-CBCFDD948CCA}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{BA8B7093-3C4F-438C-92D1-1E29F61382C4}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{47AA6C76-2872-458D-AABF-711F13B45DDC}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{8AABD981-638E-46C5-AA0D-B0363D73262B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1349,7 +1349,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF80E1B-2421-4897-BF12-24E816780C69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249B0D14-A1D4-4977-AF7C-BEB38D6C8A5C}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2584,18 +2584,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{08648CC8-49D0-4BF7-8FCA-B9EC95FBAA19}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7836203C-B8A2-4C4A-B923-CEADDCCA3555}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{27720148-82C9-4DF5-8BEF-D3A50D4E5214}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9BC7EF31-0C46-4CBA-BE1A-788E49A3B4BD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{019AE620-5E48-4BE6-959F-89055339A2F8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{086B163C-0B1E-47BD-8FEF-60588DA5A93C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7BA57694-CF8B-437A-8E44-CD1BFBB6E2F4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F7AD599D-8419-4EF8-97FD-9EF1CD03AC38}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F2776C90-A253-413A-AA15-08B0FF898F6F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D0B9CD6D-04AC-4528-9719-3C20F787D190}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D53D157B-C4FC-4E63-A054-E8277CE2C706}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2C4CC495-D55C-42A1-9834-310A5C468FA2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{91B8411F-43E5-4F30-8F24-21B1CD113CF5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8D29E4F5-106C-407E-BD28-95C0FD91F6DA}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{595BA16A-7BC2-4A14-BCA8-788EC4C9D950}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5B695952-37C0-455C-835F-CF816F4B8329}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{853F368F-12E8-4633-A2F5-563004B3495D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CD9A0EEC-E9C8-422A-8BEF-64D16175515F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4BF7CDE3-B404-45CA-B4E7-60149243099C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EAD07874-046D-4407-A47F-CF998BB0F667}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F9290383-F3ED-4DD9-A00C-2029D14EED60}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{30BD1EBD-04ED-4FF3-A410-8AC4DE94EDFA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{958BDA06-43B4-4C6E-9685-39E9BB36C7AB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DBBC862E-DB60-4FE0-BCC9-FCBB23A96CEA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2608,7 +2608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6338CC84-D95F-49FB-BD49-9577B32B7862}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6781BC37-56A2-4CD5-81BD-7D20C8ED721E}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3809,18 +3809,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{07C44B4B-564A-4D26-9B6F-757DBA0ED29E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6F563C96-0E70-40AF-B6E9-66608465C292}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9CC09333-5651-4E71-B1E0-DC40E441BF89}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B32B889D-B036-40FA-A527-8EAFFE3D68C1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4B03DF64-A6FD-468F-AA90-0AD0C888B5F0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BB184FDB-2B44-4C55-B734-F7424E223CEA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CAC57D5E-5C79-4B44-BAC7-3AA1F57E6CAC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{30A4F30C-6CCD-48B9-B1A6-8177C82A85D8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A504493A-B857-4414-B1DF-C1EB412C02A7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D4FED34A-8111-461A-BF1D-8BDF70CDE5C6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{16953ECD-0BDB-44B9-900D-091A8F53B3C3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AFB455C4-F8FF-4D68-9B80-C2C2BE0A4740}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9166555C-D1DD-4027-8A0B-5309093D35DD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D4B90D8D-0A7C-4FD5-B912-4F43D2D5EAA4}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5EB90543-BA19-4C0F-9F95-27AD4768A888}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D5CDD4CA-A55E-4DC5-87E3-A09F3B0B8D72}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EE9D4A4E-48B0-4AE6-BCA1-2AF9B05D38B1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6ED8F8C3-A45B-433E-B422-663FF186C8CC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{95085B64-0D0A-40A3-B0C6-8FCCE8F7DE78}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4E632134-25EF-49FF-8FA5-2697C58B5EC5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F3AB0EC3-535A-4CC9-9471-6791525164E0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F9EAD0EC-6BFF-4652-9789-FA54A4E8D206}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{71E85131-5A21-41FA-972E-AFAC213C89FD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{155CBCE2-9AFF-4D4A-B6F6-652BE84268C4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3833,7 +3833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E972D2A8-82A4-41B6-B157-E90C1AEA1C07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5BE7DCC-B702-4D3A-B42A-142D3F9E166D}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A76" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5030,18 +5030,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{77D00DA0-7964-495C-8598-4F247BC2D485}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{32DE6A7E-FC09-4F19-A12F-A7EDEB2122A7}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D9B8D074-19D4-472A-9578-97A2E5DC074E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2D76F582-0F07-4619-A861-478494D61FEA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C917B295-4225-4ACB-9C87-007B0B7C2D12}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EFF47CB7-B22D-457A-BC37-0F29F87E426E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C9F5F803-5422-476D-95BF-049C647F7F05}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FC9D7B96-CDC9-4158-BF45-84D01EF173A0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A96F6CF9-450A-4656-BF4A-1370C37FB12B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{191543B6-CB7A-4276-80C3-C4DCA3611197}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EF55EF3E-F774-4614-A84A-6C85D4CC3932}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A028AD69-8DD0-4AB5-8DBF-EB9ECE27976E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3F4579D9-85C6-4F37-AA4C-050166C86F0B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{19E40591-AE9E-49D5-BF0B-71A9CB10920B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8461C6F5-D3B3-41FF-8812-836E5B9B7BEC}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4E63825F-2854-486B-90D3-485EBFFB0E07}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{79613861-CBDF-4937-9B71-04289AD855C2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7AB4AF35-C5EA-4B64-A12E-62F18F7CAB6A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C3F159A9-72AB-45D4-80F1-566F56976075}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E7DA8032-5D8E-4B9E-9019-0D761BA5A642}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0842FFF1-ADB0-45B9-B85F-EFB9AC53C69A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{ED9CE132-B440-42F8-8FEE-91F2B4672F3B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F8A8F0E7-FC64-4DA8-B8A6-436D3472618B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F18CA71E-F487-4470-AE70-FAC3EB14EBD5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5054,7 +5054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520E3683-6F46-4E02-9875-33CC616D7A4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5217FC-2A36-4144-ABCE-584A912CFFB8}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6241,18 +6241,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D37AC6B5-98EB-43A9-9CE5-E4B87C70A917}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C7D5FD6F-D6CF-4F04-895A-82AD6F1DD39D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{100EE8A4-5D5B-4FA6-9DA8-9FDF5D59EF7B}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9AC13718-5007-4EF8-B3EC-C273DD70F71F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{91096C18-65F7-411E-A416-B28EA586F4FD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B2F618CB-34B2-4208-BE78-B27022200CA0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F00CE197-12A2-4217-A53D-8DD9DF08EAD4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CEE2B1A4-D0A0-416A-B108-53CA54644E5E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{73D31937-3835-447F-B839-80B9345883D0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D0969866-703C-4839-8919-2F7AF9AED9BA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{714F1013-6449-496A-86E5-EB05A046DBBA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{79AF499E-EC60-4CC8-B114-FA420A1C15B3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BC1A551A-BABF-40B5-A41C-6169720640FD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{99250B05-AC0E-4260-A6A3-891F5CC59806}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7E84F643-C904-40C5-A3D4-6A4332F5E5D6}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{78727999-96DE-4580-ACF7-48F1E2F08CA9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{351AEC8A-8E20-49CE-809F-769DE94E2FF1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{059C4FDE-DA16-4C6C-ADF2-BE7C07D06AE3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4D811E97-622B-4801-BD2B-F3122B7C5C96}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AA8C193F-2D0A-432B-834B-EF930EC783B3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9067B81C-B31E-4BA6-AC58-8A25C58B0145}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8DB6371F-329F-4105-8573-3F9EB389446D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{713969CE-0901-4656-8AD9-29C23C4E9E0E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DF0BADAB-6767-485F-95A6-66E1F624D161}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6265,7 +6265,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A3B85C-64F7-452F-AC42-BF99CA5E8861}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CE797C4-4B5A-4559-BF29-1256A3E99D59}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7496,18 +7496,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B75CEA1B-1A33-4481-9EC4-2610AF09FC8B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{51D74B73-606C-4087-9825-2D26E19BE278}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0CD9DABF-6FAC-444F-AA1C-B59611B5C056}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7F7B8BC7-3FC0-4D69-AAAD-0A49AFDD8233}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C2B7B543-900A-42AC-9E6E-6F48AAF6608A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DE83E872-8805-4D9A-B2A2-504A3F4FEBB1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{942567C0-CCF2-4ED2-A67F-D90A5B55E744}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{39FA9B5E-5C79-49E8-AF06-902F96ABE240}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0C557BE6-227E-4199-9147-9E3239E1517A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{52184647-218F-457E-99EB-A9983AA97C2C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{073526FE-8682-4A64-A1BF-26A89539D19C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9881C56A-F7D9-49AC-9B62-620DAFC58394}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9B6A9385-D042-464A-A32F-6B9FE34539D1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{684A2B8B-C0EB-44F9-B4EF-36B426E3EC6D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3EEE35DF-7BE2-42FC-A4A3-B23049984C46}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5D13F360-7772-4F09-84DF-07D5A0C258AB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{81A390D9-73D1-4942-A44B-877CB4898905}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DDCF54F4-3AE5-41D1-A914-1ABD5D6F5496}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CF35504B-2366-4563-940C-036FD867F32B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7369D8FA-FA61-46AB-9BC7-9F6CB0372CF6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C42F9F30-CE51-4825-852D-C6864C60FE46}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E945C5B5-BEE9-4672-A346-9E703427B3A9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4A36318C-1425-4735-B54D-BF47844D586D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8CC203D8-7D01-443A-8167-860006559C3D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7520,7 +7520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0F2A25-B11D-422A-ADA5-FEE2DCDDC96E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92409F7C-8D19-4E70-8A74-C63AF0C49A7B}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8747,18 +8747,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2F00103D-3542-4CBB-A67E-A2361B2B439F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DECFB1E4-4324-4AF6-BB94-2CC285AE40D0}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{54C27441-2C02-49D8-830B-F29C5B25D67A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DE804398-620B-44DE-A728-71AD964CB675}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5750922E-7682-41F3-9FC5-176D83B93D2D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6156CE83-5066-464B-86E9-7A7D742C7B25}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F4B6494B-89DE-45D6-B67F-612F69929B3C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0130E0B1-3787-4E77-902E-530038E0F232}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{07D86B59-BD79-41C4-8FAF-99205707EBDD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{809B67BB-D64C-4468-85D1-1D0E3C63207B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B9895401-E495-439A-9DAB-C51E487C29BC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7495A45D-2D4C-4E87-B244-64056D65912B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A02E101F-69C6-45F4-AEA8-33D524E2409A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2B83F7BF-9DFF-4578-898A-F86BC1C897B1}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{710CF9C9-8F94-4EDE-8190-AA2D2A80B42C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{04DB4924-0FF3-46C8-BC08-9EFAAF7B92D4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D82C5A15-3341-4EAC-9351-360F17EED0AD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EC339067-415E-4D4D-9D7B-FACE79669CFF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8764CBE0-E231-41F3-87C0-27C5D21A9A4E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AB9B6663-DF44-4E21-B100-324641FAA000}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{183B070E-EF90-4802-81CC-52AA480FCE1A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C746227B-2F38-4820-B116-F2C464C7DD68}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CD2887AF-0CE1-4AFD-A148-E6608074EE7A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2920E624-4BC1-4E4B-8DED-D6C9A01B1A48}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8771,7 +8771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F573B28E-E46F-41ED-8FF0-6F42A2F7364A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FADC77-89D3-4D76-A8E0-4822735E9C98}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9998,18 +9998,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E0F8A7FD-6BD5-4661-8C53-7A6E7188B8EB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{83E0CEA4-C55C-4D5F-B03A-47B4C1ECF3A2}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{45B4002B-6156-4867-804E-7394ACA8FA00}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6457ABCF-891F-4A05-A09C-55CB2F628C4F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F0975BCB-5ED7-4EEE-B13D-5D98D9F98D3D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{32E9DC00-9F71-4E5F-87AB-1A1386543082}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DD771312-46AD-4048-81D6-07C893601A51}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E90D6370-7DF9-4F44-A103-E6AA0DCCBE63}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B63EB3E8-C433-49DE-AC38-AAF02F196200}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AD27ECF9-4EEA-458D-9812-C8E84FF04B77}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{68B50DCE-62A9-4EE8-B11A-4EB08673F179}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{63E2EDA1-BB06-4A44-9ADD-D59C93E3DCFF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6F74343A-0B1A-4C1D-AAA1-1141514C8A44}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BBBC9922-BA00-461E-99B6-C96D751E66C3}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9F0A7EAD-6E5A-4B7C-AD84-A797C6EAA303}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{58AC83E4-DDC2-488B-A132-B960684E558D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0E13446E-3C13-4900-B27E-F00349C6C3DD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1CE6E7D2-3958-43E8-A4B0-119082F0CF8F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B4AB6EEF-58B3-45B6-8EE9-50470E1B7449}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7DB44BB1-2603-4F07-8EE9-D475D27AA6F8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B309E70F-522D-4175-ABD9-415264D5DC66}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{070489E0-DD83-439C-B4BB-7DB2B6390B05}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{21CCD549-7C87-4EFB-9315-569B42E3C167}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{83341601-0A2D-4918-A4E8-F18E4BC2328A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10022,7 +10022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860D1482-7634-4AEF-9AF4-BB9BB99A14A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72134C59-AFD1-46BF-B4D5-CA3CDD4BE9D7}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11251,18 +11251,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0C9E3860-AE5D-44CE-AD12-0CE1BE791605}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6428D2B4-A461-4858-BD56-40EA1F5225DB}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{10538701-3A50-4FDE-9F6F-8DA37AC0348F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{61B34A49-204A-4B8D-AB35-3E4586D0C42E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2962519D-A78C-4A2E-A04F-4E2492307F77}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5DD59A6E-DEA1-45D9-B39B-739DC645ED89}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A2198204-F0D9-4E0E-B641-19E2F0402935}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{671DF541-E7D5-4D3C-A72C-5E9E7649B94C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4663F912-C41A-4565-AC4B-592A7F6F0F18}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{974FABAD-7244-4B2D-89B2-DD4CFDB5B116}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8F450D9D-E10F-4C22-9396-E48395723ACD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{82A8B255-0696-4451-8F94-6AD42067BC67}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3B2C20FD-7220-4CB0-B84F-424DDDB039A2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1465A73B-9470-44A5-9B06-C6276BB25C28}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{83966BDE-967B-4655-9E0B-C23C46B31052}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8BFF0AF9-8E50-460F-8140-F52CB967F401}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CEA215B2-E559-40D6-9EB6-38E73DF4F921}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{82F5CFF3-6291-4BE8-8662-5960217A51D2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F75B6F6E-B014-41C2-87D0-8EAA40BF5DED}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C796E43D-1F0F-43FA-AFEF-8FBC6F8FEC58}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8C1ADDDB-8395-490D-82A3-AAF87F275FCE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{797C4749-151E-4F55-942A-D99DCFCC8876}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{92E0712C-ECC1-4E42-A89F-1CB2EF013B8B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5E09C5E0-5C24-4CC4-B1CB-0F35E2654C7A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11275,7 +11275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DE1745-7F71-412A-90FD-EF5E5B6F5803}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD57E16D-28BE-4F59-91F1-32EEAC392929}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12490,18 +12490,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DF6E9A2B-80B8-40A8-9201-2721EA2257D1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{161037C8-8CCE-45D3-B963-AB12E3F98951}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BE444E25-4CCE-43FE-9A5F-2FBE237DECA2}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{26A13FDA-6D92-405A-8C39-5228CB3855A5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4FC1B496-ACD5-4407-9A05-FCCA6BEA589B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{46E00655-08FD-45EC-A829-65057E1EC7D8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1A12010A-3EA2-45D4-AD88-5215B065337A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E9F79244-B4B9-4183-A0E7-A7E3DDFE3713}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FA77A97B-3E55-4071-9E74-8AE6F0517124}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9596DD71-267D-4D6B-BDD1-5B97FDCF151B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1832A3A3-8B32-4B71-9078-93D1239F7EFD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{31AB4E12-EA9E-4415-B2A4-4F2035D1DD93}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3857620C-0FA1-4F6C-8CAD-E4B2C242156C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{207FED75-E6D9-4122-BF86-33990D629EDB}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{347EDE47-40A3-470D-A261-9B298786714F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{37CC269A-9444-4A0A-9BF1-4E257B8E4266}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C8DFD6A7-207E-4268-BBBB-CC2A8DE5FEA4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{39BD9C9F-5F42-43E0-9008-2A3D532C1FEA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8F0C56B3-A75A-4393-B341-3F29E34BEC08}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ADECD03D-1AE6-4254-A51B-2FCA056BC333}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0821F91E-8FFC-472C-9DFC-B7B4DAA1E302}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D0623EC6-8E5A-4EFF-9F74-869AFAE1F7F7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4AD9191F-2775-42C8-8FA4-E6B2CAB8F0C7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4F94452B-F403-41F2-8A43-93923E109E86}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12514,7 +12514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{806C4897-CA4D-45D5-A5C6-363F694DDA95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABCE55CB-7F61-4492-9D8D-F93F3E8BB4A8}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13731,18 +13731,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C7F700D0-2E70-46EC-8FA4-755FF14A231D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D4F33742-6A95-4B97-8827-C9A32D0DEC7E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8A71BA8F-AE6A-4963-B176-96C5B0E59D11}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F2130616-5D03-4BEF-9802-6BE2E151763F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AD496E10-B534-4D2A-B031-857CD5114C4A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6221887B-32DE-45B0-8F1D-6F85B3C4A79D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F41DD720-7A7B-4AC6-9CFD-83BA5632E8B5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3C497050-0E13-4904-92A1-7BCE781944DB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E2E14D55-4893-470E-BFC0-371E020F00F6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1B3218F4-8D00-461E-A482-D843A7AFA8C7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F466D45C-234D-4D42-A918-15D18482DD01}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A59F6A23-4FCF-4436-878C-D56C38CAD27B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5B753968-6B67-4F45-B513-F053A3ADF394}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{49ED20C2-2F7D-4C75-966C-5FBA08117670}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{05332BBB-8218-4554-9CEE-04251387415B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E09E43B4-CB4F-48A8-80C0-0C474F2AC550}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C6B5C2AB-2CCF-40AF-9336-FED47130E65B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{86006225-7F7D-4ADF-9DDE-F36C6B81C0ED}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F2C9E39C-E75C-4D7D-88FA-526956D7EFE3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{98EBADA6-72F0-4B73-9AB8-1744615BF17B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{190243F1-CF4C-4BF3-A01F-0CD8ED6C004A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1289C016-B3AB-4EA6-A9CF-23F2600DC17B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A19762A7-3063-4EA0-8DA7-663A2C8B8119}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9C272F09-6069-4DE1-B9EB-EFF0695B68CD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13755,7 +13755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FCAA1E-4847-4AF5-9379-9C8CB7D5B55E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{059197AB-4090-4B0F-927D-B0E9B0E83538}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14966,18 +14966,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{58345C4B-7316-4ADA-B8FF-3E90E95D5DFD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7CEFF659-78FB-4895-BE34-65A944144CA2}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BE716062-E434-4639-A405-58C7D2F41AC6}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{102520FE-DF37-4D35-A6D3-5C7D789CFC2B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D7AC57AF-F0A1-4BE8-B677-7D6E3122FC90}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{519F9A5C-FB47-4D37-A3BA-6383FCAD3230}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{544604FA-30A6-4792-9378-FE2B9C557862}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4438975D-D6B1-450A-8407-8140CCF0DE09}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6F648882-B0EE-4532-83A2-6CF7B13E1241}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6E71DF06-A8A1-40D0-9F90-1CFF9DD415AE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C1093441-2784-4F95-9633-F1216E7E2D39}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{450A807A-4F05-4740-A304-2B044516223F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F053974C-7FE2-48F7-B0E5-5CB47E926204}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6C7BA9E2-60CD-4CB8-94DE-7271245563E2}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4FF4540D-BB65-4508-AF58-27E8BDCAA4D8}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0A55EA96-BC9E-41C5-8CA0-631D5174A3D0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AD37CF06-2410-4552-A69B-24BA92B2232B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D88C8BA8-F1E2-4060-B840-91AE1C25A1F2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{23D8918E-241D-4790-976F-0AB310F1D8B6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6F0057A5-10D2-4AAB-AC0C-34695864BB7D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{46BF37C1-4D34-4D5E-AFFD-9BD7189FC8E8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C841D7A9-8436-419E-A640-24A75CAD7670}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2BAAF750-F510-4DFE-BAF2-09D7FD7DBF40}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{502159F3-2611-415F-9343-CD32F76920FA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14990,7 +14990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD6929F1-22D2-43BB-B9F3-BA971FC841A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DD824A-3EB0-41C7-897A-34332CE28229}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16193,18 +16193,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C55B4D0B-B538-472C-BDC3-4050A11D56C7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DC4B8C8B-570A-44F0-911F-6AEB638CD4B0}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1B819002-3685-4FED-BA9D-8320A761FB7F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E47B37DC-D326-4F8D-B0FA-CC01D8C30EEF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FA085365-D633-4CEA-A753-A2EDEA452FA6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DE73EF05-4866-4DB5-B5DA-27CF2B7476D2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D68DB952-8888-4B68-BC1D-DC7129AE4E2D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F8DD8A48-D94D-4036-B50B-E598FE2BDC33}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B4BC754A-A180-4F4E-BF24-598FEFDAB993}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A74FE258-657A-4B72-AF5F-5733738711F1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CE47A902-09A6-45BB-A902-5013B6899B5F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9B04AEFE-E634-4446-991F-39E0AA121D43}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{95F73C14-084E-47F4-B1B0-4FBABF16EF53}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A37765D6-D57D-45DD-A373-79B24B6C1105}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9E5C8734-62B0-49A7-8037-B01181A603E6}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{92C2B25A-F3EF-48F2-B202-9E7D4DD530AA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FB332095-DF1E-4DB5-86AA-91CC55A93A4E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{265E677E-D6B8-4DA2-B23D-28CC12ABF21E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6178CEBA-3BD8-4E6E-A1AA-8C1BF65C4F0E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6E1C1B72-3023-40D4-BCA4-C3169529FDDB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D51F8615-13BC-4D6B-B9F7-8B2A1C3C8D95}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8AB6F0A4-D041-490F-973A-D8221BEBAD3F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{34109EE2-0A3D-44C8-981F-5CDFCEA40F25}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AE0EDAEF-E1C7-49C8-A782-6209162C987D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
